--- a/biology/Zoologie/Calao_à_huppe_blanche/Calao_à_huppe_blanche.xlsx
+++ b/biology/Zoologie/Calao_à_huppe_blanche/Calao_à_huppe_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_huppe_blanche</t>
+          <t>Calao_à_huppe_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Horizocerus albocristatus
 Le Calao à huppe blanche (Horizocerus albocristatus) est une espèce d'oiseaux de la famille des Bucerotidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_huppe_blanche</t>
+          <t>Calao_à_huppe_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend à travers l'Afrique équatoriale.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_huppe_blanche</t>
+          <t>Calao_à_huppe_blanche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Mensurations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 70 cm à 80 cm.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_huppe_blanche</t>
+          <t>Calao_à_huppe_blanche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit surtout d'insectes, mais aussi de petits reptiles, d'araignées, etc.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_huppe_blanche</t>
+          <t>Calao_à_huppe_blanche</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,11 +623,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>À la suite de l'étude phylogénique de Gonzalez et al. (2013), le Congrès ornithologique international (dans sa version 4.4, 2014) déplace cette espèce depuis le genre Tropicranus W.L. Sclater, 1922.
-Sous-espèces
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des trois sous-espèces suivantes (ordre phylogénique) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de l'étude phylogénique de Gonzalez et al. (2013), le Congrès ornithologique international (dans sa version 4.4, 2014) déplace cette espèce depuis le genre Tropicranus W.L. Sclater, 1922.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calao_à_huppe_blanche</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calao_%C3%A0_huppe_blanche</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des trois sous-espèces suivantes (ordre phylogénique) :
 Horizocerus albocristatus albocristatus (Cassin, 1848)
 Horizocerus albocristatus macrourus (Bonaparte, 1850)
 Horizocerus albocristatus cassini (Finsch, 1903)</t>
